--- a/test/data/utils/extract_startandend.xlsx
+++ b/test/data/utils/extract_startandend.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>start year</t>
   </si>
@@ -52,28 +52,34 @@
     <t>end second</t>
   </si>
   <si>
-    <t>folder/array name</t>
-  </si>
-  <si>
     <t>station number</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
     <t>file suffix</t>
   </si>
   <si>
-    <t>c100</t>
-  </si>
-  <si>
-    <t>site_c100</t>
+    <t>folder</t>
+  </si>
+  <si>
+    <t>array_0</t>
+  </si>
+  <si>
+    <t>ex_array_0</t>
+  </si>
+  <si>
+    <t>across days</t>
+  </si>
+  <si>
+    <t>ex_array_1</t>
+  </si>
+  <si>
+    <t>array_1</t>
+  </si>
+  <si>
+    <t>half hour on same day</t>
   </si>
 </sst>
 </file>
@@ -109,12 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -421,13 +424,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -435,18 +438,19 @@
     <col min="1" max="2" width="21.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" style="1" customWidth="1"/>
     <col min="4" max="15" width="11.88671875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="35.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -485,36 +489,30 @@
         <v>11</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E2" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H2" s="1">
         <v>30</v>
@@ -523,16 +521,16 @@
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="K2" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="L2" s="1">
+        <v>22</v>
+      </c>
+      <c r="M2" s="1">
         <v>5</v>
-      </c>
-      <c r="M2" s="1">
-        <v>10</v>
       </c>
       <c r="N2" s="1">
         <v>30</v>
@@ -540,11 +538,61 @@
       <c r="O2" s="1">
         <v>0</v>
       </c>
+      <c r="P2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E3" s="1">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="K3" s="1">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1">
+        <v>23</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>20</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.3">
-      <c r="P50" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test/data/utils/extract_startandend.xlsx
+++ b/test/data/utils/extract_startandend.xlsx
@@ -430,7 +430,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I23" sqref="I23"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/test/data/utils/extract_startandend.xlsx
+++ b/test/data/utils/extract_startandend.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>start year</t>
   </si>
@@ -58,21 +58,12 @@
     <t>notes</t>
   </si>
   <si>
-    <t>file suffix</t>
-  </si>
-  <si>
-    <t>folder</t>
-  </si>
-  <si>
     <t>array_0</t>
   </si>
   <si>
     <t>ex_array_0</t>
   </si>
   <si>
-    <t>across days</t>
-  </si>
-  <si>
     <t>ex_array_1</t>
   </si>
   <si>
@@ -80,6 +71,24 @@
   </si>
   <si>
     <t>half hour on same day</t>
+  </si>
+  <si>
+    <t>across days and years</t>
+  </si>
+  <si>
+    <t>ex_array_2</t>
+  </si>
+  <si>
+    <t>array_2</t>
+  </si>
+  <si>
+    <t>two full hours</t>
+  </si>
+  <si>
+    <t>array name</t>
+  </si>
+  <si>
+    <t>folder name</t>
   </si>
 </sst>
 </file>
@@ -424,13 +433,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,10 +453,10 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
@@ -494,10 +503,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -506,16 +515,16 @@
         <v>2020</v>
       </c>
       <c r="E2" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
         <v>0</v>
@@ -524,13 +533,13 @@
         <v>2020</v>
       </c>
       <c r="K2" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
         <v>30</v>
@@ -539,15 +548,15 @@
         <v>0</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -556,16 +565,16 @@
         <v>2020</v>
       </c>
       <c r="E3" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -574,25 +583,75 @@
         <v>2020</v>
       </c>
       <c r="K3" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L3" s="1">
+        <v>31</v>
+      </c>
+      <c r="M3" s="1">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1">
         <v>23</v>
       </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>20</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
+      <c r="H4" s="1">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2021</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>30</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="24" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
